--- a/ProgramCode/boomGainsRet.xlsx
+++ b/ProgramCode/boomGainsRet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="proportional" sheetId="1" r:id="rId1"/>
@@ -340,8 +340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,72 +626,55 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -699,72 +682,55 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1215,7 +1181,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,72 +1465,55 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1572,72 +1521,55 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2087,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
